--- a/output/ITAÚ_31341378000182.xlsx
+++ b/output/ITAÚ_31341378000182.xlsx
@@ -669,10 +669,10 @@
         <v>44165</v>
       </c>
       <c r="B26">
-        <v>-0.07432620000000001</v>
+        <v>-0.07593850000000002</v>
       </c>
       <c r="C26">
-        <v>0.05812103157661075</v>
+        <v>0.05627804051516883</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_31341378000182.xlsx
+++ b/output/ITAÚ_31341378000182.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ PRIVATE LONG BIAS MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43434</v>
       </c>
@@ -411,268 +405,196 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43465</v>
       </c>
       <c r="B3">
         <v>0.08028199999999996</v>
       </c>
-      <c r="C3">
-        <v>0.08028199999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43496</v>
       </c>
       <c r="B4">
-        <v>0.1458936</v>
-      </c>
-      <c r="C4">
         <v>0.06073562273554489</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43524</v>
       </c>
       <c r="B5">
-        <v>0.1376379999999999</v>
-      </c>
-      <c r="C5">
         <v>-0.007204508341786764</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43555</v>
       </c>
       <c r="B6">
-        <v>0.125637</v>
-      </c>
-      <c r="C6">
         <v>-0.0105490498735098</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43585</v>
       </c>
       <c r="B7">
-        <v>0.1166703999999998</v>
-      </c>
-      <c r="C7">
         <v>-0.007965800697738445</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43616</v>
       </c>
       <c r="B8">
-        <v>0.1392248</v>
-      </c>
-      <c r="C8">
         <v>0.02019790262193766</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43646</v>
       </c>
       <c r="B9">
-        <v>0.1779839000000001</v>
-      </c>
-      <c r="C9">
         <v>0.03402234572140639</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43677</v>
       </c>
       <c r="B10">
-        <v>0.2287136000000001</v>
-      </c>
-      <c r="C10">
         <v>0.043064850037424</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43708</v>
       </c>
       <c r="B11">
-        <v>0.2581298999999999</v>
-      </c>
-      <c r="C11">
         <v>0.02394072955650506</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43738</v>
       </c>
       <c r="B12">
-        <v>0.2049652</v>
-      </c>
-      <c r="C12">
         <v>-0.04225692434461648</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43769</v>
       </c>
       <c r="B13">
-        <v>0.1927173</v>
-      </c>
-      <c r="C13">
         <v>-0.01016452591327943</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43799</v>
       </c>
       <c r="B14">
-        <v>0.2554067</v>
-      </c>
-      <c r="C14">
         <v>0.05256014983600887</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43830</v>
       </c>
       <c r="B15">
-        <v>0.3501239999999999</v>
-      </c>
-      <c r="C15">
         <v>0.07544750239105769</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43861</v>
       </c>
       <c r="B16">
-        <v>0.4316593</v>
-      </c>
-      <c r="C16">
         <v>0.06039097149595163</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43890</v>
       </c>
       <c r="B17">
-        <v>0.3568815999999999</v>
-      </c>
-      <c r="C17">
         <v>-0.05223149110965164</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43921</v>
       </c>
       <c r="B18">
-        <v>-0.04318440000000001</v>
-      </c>
-      <c r="C18">
         <v>-0.2948422323657421</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43951</v>
       </c>
       <c r="B19">
-        <v>-0.08257910000000002</v>
-      </c>
-      <c r="C19">
         <v>-0.04117271917389309</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43982</v>
       </c>
       <c r="B20">
-        <v>-0.09287200000000007</v>
-      </c>
-      <c r="C20">
         <v>-0.01121938687030133</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>44012</v>
       </c>
       <c r="B21">
-        <v>-0.01651439999999993</v>
-      </c>
-      <c r="C21">
         <v>0.08417511089945418</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>44043</v>
       </c>
       <c r="B22">
-        <v>0.01738479999999987</v>
-      </c>
-      <c r="C22">
         <v>0.0344684253638281</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44074</v>
       </c>
       <c r="B23">
-        <v>-0.01411619999999991</v>
-      </c>
-      <c r="C23">
         <v>-0.03096271931721384</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44104</v>
       </c>
       <c r="B24">
-        <v>-0.08976830000000002</v>
-      </c>
-      <c r="C24">
         <v>-0.07673531099709729</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44135</v>
       </c>
       <c r="B25">
-        <v>-0.1251721</v>
-      </c>
-      <c r="C25">
         <v>-0.03889537136533472</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44165</v>
       </c>
       <c r="B26">
-        <v>-0.07593850000000002</v>
-      </c>
-      <c r="C26">
-        <v>0.05627804051516883</v>
+        <v>0.04670598640029655</v>
       </c>
     </row>
   </sheetData>
